--- a/09/firewall.xlsx
+++ b/09/firewall.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이윤재\Desktop\rule\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이윤재\Desktop\rule\09\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F01595E8-5650-4D85-B8AD-EAC0F6A74B95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A92E523C-B445-4968-B43A-87E2278FBEFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VPC_FW_List (2)" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
   <si>
     <t>TCP Port</t>
   </si>
@@ -29,9 +29,6 @@
   </si>
   <si>
     <t>Allow</t>
-  </si>
-  <si>
-    <t>Inbound</t>
   </si>
   <si>
     <t>Source IP</t>
@@ -123,15 +120,9 @@
     <t>직접입력(Direct Input)</t>
   </si>
   <si>
-    <t>192.168.11.0/24</t>
-  </si>
-  <si>
     <t>0.0.0.0/0</t>
   </si>
   <si>
-    <t>192.168.14.0/27</t>
-  </si>
-  <si>
     <t>80, 443</t>
   </si>
   <si>
@@ -146,19 +137,11 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>WEB → Internet</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>WAS → Internet</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>DB → Internet</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Internet → LB</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
@@ -166,7 +149,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -346,14 +329,6 @@
     <font>
       <sz val="10"/>
       <color theme="2" tint="-0.749992370372631"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="2" tint="-0.249977111117893"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -820,7 +795,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -836,19 +811,13 @@
     <xf numFmtId="0" fontId="21" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1172,10 +1141,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10:D11"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1187,180 +1156,148 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="8" t="s">
+      <c r="E1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="H1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="121.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="F2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="I2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="J2" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A3" s="6">
-        <v>10</v>
+      <c r="A3" s="2">
+        <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="6" t="s">
+      <c r="J3" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="E4" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="6" t="s">
-        <v>26</v>
+      <c r="I4" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A5" s="2">
-        <v>30</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A6" s="2">
-        <v>40</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="2">
-        <v>80</v>
-      </c>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" s="2"/>
@@ -1470,28 +1407,16 @@
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H16" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H15" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Allow, Deny"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I16" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I15" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"Inbound, Outbound"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D16" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D15" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"직접입력(Direct Input), ALL"</formula1>
     </dataValidation>
   </dataValidations>
